--- a/REVER_DailyTracker_20200515.xlsx
+++ b/REVER_DailyTracker_20200515.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21448A81-7402-4FC1-B7B0-DA5AA4EAFB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,23 +18,12 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -119,16 +102,25 @@
   <si>
     <t>Searching in all tables and fetching the results and displaying the results at bottom of the master pages, whereas other activities
  like styling and crossref link or sublink tasks are pending.</t>
+  </si>
+  <si>
+    <t>[Back End] Video Feedback and Comments</t>
+  </si>
+  <si>
+    <t>RPA_Sale</t>
+  </si>
+  <si>
+    <t>Integration of RPA_Sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +141,29 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,10 +242,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -266,20 +296,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="標準 2 3" xfId="3"/>
+    <cellStyle name="標準 3" xfId="4"/>
+    <cellStyle name="標準 4" xfId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -326,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -378,7 +438,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -572,33 +632,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+    <sheetView topLeftCell="D19" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -619,7 +679,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -629,8 +689,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -642,7 +702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -653,10 +713,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -670,9 +730,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -686,9 +746,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -702,8 +762,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -720,19 +780,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -750,7 +810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
@@ -763,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -771,18 +831,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -805,7 +865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -814,7 +874,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -823,46 +883,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -875,26 +935,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -917,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -926,7 +986,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -935,46 +995,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -987,26 +1047,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1089,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43966</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43966</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1038,7 +1234,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1047,46 +1243,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1098,27 +1294,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1337,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1150,7 +1470,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1159,46 +1479,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1210,27 +1530,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1253,28 +1573,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1283,46 +1591,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1334,27 +1642,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1386,7 +1694,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1395,46 +1703,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1446,27 +1754,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
-  <sheetPr codeName="Sheet7"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +1797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1498,7 +1806,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1507,270 +1815,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200515.xlsx
+++ b/REVER_DailyTracker_20200515.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41205C12-DDC4-4518-943C-E0A92875B1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -111,12 +117,24 @@
   </si>
   <si>
     <t>Integration of RPA_Sales</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t>Subnet Integration for Troubleshooting</t>
+  </si>
+  <si>
+    <t>RPA Dotnet</t>
+  </si>
+  <si>
+    <t>Check and upload DB objects  and Application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -304,11 +322,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
-    <cellStyle name="標準 2 3" xfId="3"/>
-    <cellStyle name="標準 3" xfId="4"/>
-    <cellStyle name="標準 4" xfId="5"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -335,11 +353,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -632,14 +658,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -823,7 +849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -935,12 +961,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -978,22 +1004,38 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43966</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43966</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
@@ -1047,11 +1089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1183,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1295,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1419,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1531,7 +1573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1643,7 +1685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1755,7 +1797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>

--- a/REVER_DailyTracker_20200515.xlsx
+++ b/REVER_DailyTracker_20200515.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41205C12-DDC4-4518-943C-E0A92875B1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF7DA1F-0A22-464A-898D-25A4EA4C80F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" iterate="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Check and upload DB objects  and Application</t>
+  </si>
+  <si>
+    <t>Hayaai APP Authorised/Unauthorised API error</t>
+  </si>
+  <si>
+    <t>Macro changes</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -464,7 +470,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -673,15 +679,15 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -716,7 +722,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -742,7 +748,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -774,7 +780,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -857,15 +863,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -965,19 +971,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1097,15 +1103,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1131,7 +1137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1229,19 +1235,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1271,18 +1277,30 @@
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1345,15 +1363,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1469,15 +1487,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1581,15 +1599,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1693,15 +1711,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1805,15 +1823,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
